--- a/biology/Médecine/Dépistage/Dépistage.xlsx
+++ b/biology/Médecine/Dépistage/Dépistage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage</t>
+          <t>Dépistage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dépistage, en médecine, consiste à rechercher une ou plusieurs maladies ou anomalies dites « à risques » chez les individus d'une population donnée.
 Ces investigations sont suivies ou non de consultations médicales, d'examens cliniques et de traitements.
-De plus, le dépistage constitue une procédure préliminaire (test ou examen) visant à détecter un ou plusieurs signes ou symptômes caractéristiques d’une maladie ou d’un syndrome et pouvant potentiellement mener à une investigation plus approfondie[1]. Par exemple à la suite d'examens complémentaires sur des échantillons biologiques, les analyses de biologie médicales contribuent à 70 % des diagnostics médicaux[2].
-Dans le contexte pédiatrique, on peut voir le dépistage comme une évaluation préliminaire, servant à orienter un enfant vers certains professionnels (ex. : l’ergothérapeute, l'orthophoniste, le psychologue) qui pourront effectuer une évaluation plus exhaustive[3].
-Le dépistage ne doit pas être confondu avec la prévention, mais il s'adresse aussi à des populations cliniquement asymptomatiques (phase préclinique)[4] et peut s'intégrer, à ce titre, dans le cadre de la promotion de la santé et de ce qu'on appelle parfois une prévention secondaire.
+De plus, le dépistage constitue une procédure préliminaire (test ou examen) visant à détecter un ou plusieurs signes ou symptômes caractéristiques d’une maladie ou d’un syndrome et pouvant potentiellement mener à une investigation plus approfondie. Par exemple à la suite d'examens complémentaires sur des échantillons biologiques, les analyses de biologie médicales contribuent à 70 % des diagnostics médicaux.
+Dans le contexte pédiatrique, on peut voir le dépistage comme une évaluation préliminaire, servant à orienter un enfant vers certains professionnels (ex. : l’ergothérapeute, l'orthophoniste, le psychologue) qui pourront effectuer une évaluation plus exhaustive.
+Le dépistage ne doit pas être confondu avec la prévention, mais il s'adresse aussi à des populations cliniquement asymptomatiques (phase préclinique) et peut s'intégrer, à ce titre, dans le cadre de la promotion de la santé et de ce qu'on appelle parfois une prévention secondaire.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage</t>
+          <t>Dépistage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Objectifs et avantages du dépistage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les maladies et/ou anomalies trouvées lors d'une action de dépistage le seront souvent à un stade précoce et ceci va avoir plusieurs intérêts :
 mettre en évidence un facteur de risque peut permettre de le corriger pour éviter la survenue d'une maladie. Par exemple, on dépiste l'hypercholestérolémie pour pouvoir, après l'avoir traitée par un régime ou un médicament, éviter de voir apparaître une maladie cardiovasculaire (infarctus du myocarde, accident vasculaire cérébral...) ;
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage</t>
+          <t>Dépistage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Dépistage organisé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Un dépistage est dit organisé lorsqu’il répond à l’ensemble des dix critères de l’Organisation mondiale de la santé (OMS)[5],[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un dépistage est dit organisé lorsqu’il répond à l’ensemble des dix critères de l’Organisation mondiale de la santé (OMS), :
 La maladie dont on recherche les cas constitue un problème majeur de santé publique ;
 Un traitement d'efficacité démontrée peut être administré aux sujets chez lesquels la maladie a été décelée ;
 Les moyens appropriés de diagnostic et de traitement sont disponibles ;
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage</t>
+          <t>Dépistage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,9 +605,11 @@
           <t>Ergothérapie, Psychomotricité et dépistage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’ergothérapeute peut s’impliquer dans deux niveaux de dépistage[7]. Le premier niveau est un dépistage de base, dans lequel la santé générale de l’enfant est observée (audition, vision, grandeur, développement physique, social, langagier, etc.), afin que l’enfant soit référé vers les ressources appropriées pour établir un diagnostic et définir la prise en charge au besoin. Dans les écoles, les ergothérapeutes peuvent participer au dépistage d’un grand nombre d’enfants pour vérifier si des tests plus approfondis sont nécessaires. Des exemples d’outils utilisés à ce niveau sont le Ages &amp; Stages Questionnaires et le Bayley Infant Neurodevelopmental Screener. Le deuxième niveau de dépistage survient lorsqu’un professionnel de la santé ou un enseignant identifie un enfant comme étant à risque de présenter des problèmes au niveau du fonctionnement ou du développement. C’est généralement à ce niveau qu’intervient un ergothérapeute. Pour un professionnel, le dépistage sert à déterminer si l’enfant a besoin d’évaluations supplémentaires ou non et à déterminer la nature de ces évaluations. Plusieurs outils de dépistage peuvent être remplis directement par les parents (ex : le M-CHAT pour dépister l’autisme).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ergothérapeute peut s’impliquer dans deux niveaux de dépistage. Le premier niveau est un dépistage de base, dans lequel la santé générale de l’enfant est observée (audition, vision, grandeur, développement physique, social, langagier, etc.), afin que l’enfant soit référé vers les ressources appropriées pour établir un diagnostic et définir la prise en charge au besoin. Dans les écoles, les ergothérapeutes peuvent participer au dépistage d’un grand nombre d’enfants pour vérifier si des tests plus approfondis sont nécessaires. Des exemples d’outils utilisés à ce niveau sont le Ages &amp; Stages Questionnaires et le Bayley Infant Neurodevelopmental Screener. Le deuxième niveau de dépistage survient lorsqu’un professionnel de la santé ou un enseignant identifie un enfant comme étant à risque de présenter des problèmes au niveau du fonctionnement ou du développement. C’est généralement à ce niveau qu’intervient un ergothérapeute. Pour un professionnel, le dépistage sert à déterminer si l’enfant a besoin d’évaluations supplémentaires ou non et à déterminer la nature de ces évaluations. Plusieurs outils de dépistage peuvent être remplis directement par les parents (ex : le M-CHAT pour dépister l’autisme).
 Psychomotricité et dépistage
 Le psychomotricien profession de santé (en France), spécialisée dans la prévention, l'éducation, la rééducation, la remediation des troubles psychomoteurs peut également faire partie des interlocuteurs en pédiatrie.
 Spécialiste du développement psychomoteur, souvent présent en crèche, il dispose, d'outils d'évaluation, de grilles d'observation pouvant permettre le dépistage des retards de développement.
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage</t>
+          <t>Dépistage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +643,9 @@
           <t>Performances d'un dépistage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les personnes dépistées sont classées en sujets positifs ou en sujets négatifs selon que la maladie recherchée ait été supposée présente ou absente. Dans chacune de ces deux situations, les investigateurs ont pu se tromper. Donc en réalité, il existe quatre possibilités de résultats :
 la maladie existe réellement et elle a été trouvée (vrai positif) ;
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage</t>
+          <t>Dépistage</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +681,9 @@
           <t>Conditions nécessaires au dépistage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pour mettre en œuvre un dépistage, il faut d'abord remplir certaines conditions :
 la maladie doit être assez fréquente. En effet, dépister une maladie rare ferait réaliser des examens à de nombreuses personnes, coûterait très cher pour ne traiter finalement que peu de patients ;
@@ -680,7 +702,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage</t>
+          <t>Dépistage</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,7 +720,9 @@
           <t>Notion de population cible et de dépistage de masse</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut distinguer les dépistages de masse des dépistages sur population ciblée. Les dépistages de masse ou dépistages systématiques concernent une population non sélectionnée. Dans le cas particulier du critère d'âge, le dépistage est considéré comme généralisé à l'ensemble de la tranche considérée.
 </t>
@@ -711,7 +735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage</t>
+          <t>Dépistage</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -729,7 +753,9 @@
           <t>Moyens du dépistage</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Examen clinique : palpation des seins, toucher rectal, toucher testiculaire...
 Examens biologiques : prises de sang, recherche de sang dans les selles, spermogramme...
@@ -737,7 +763,7 @@
 Recherche de mutation génétique : BRCA1 et 2 de certains cancers du sein et/ou de l'ovaire...
 Imagerie médicale : mammographie, échographie...
 Test de dépistage rapide à orientation diagnostique (TROD)
-Questionnaires et entretiens : pour les dépressions, comme l'échelle de dépression post-natale d’Édimbourg[8].</t>
+Questionnaires et entretiens : pour les dépressions, comme l'échelle de dépression post-natale d’Édimbourg.</t>
         </is>
       </c>
     </row>
@@ -747,7 +773,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9pistage</t>
+          <t>Dépistage</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -767,8 +793,13 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>France
-Dépistage chez le nouveau-né : phénylcétonurie, hyperplasie congénitales des surrénales, hypothyroïdie congénitales, drépanocytose et mucoviscidose.
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dépistage chez le nouveau-né : phénylcétonurie, hyperplasie congénitales des surrénales, hypothyroïdie congénitales, drépanocytose et mucoviscidose.
 Dépistage chez le nourrisson et l'enfant : trouble de la croissance, de la prise de poids, trouble de la vue, de l'audition, du développement psychomoteur.
 À l'âge adulte :
 Dépistage des facteurs de risque cardiovasculaire : HTA, dyslipidémie, diabète, surpoids et obésité.
